--- a/src/main/resources/template/excel/export/StockLeadGoods.xlsx
+++ b/src/main/resources/template/excel/export/StockLeadGoods.xlsx
@@ -155,15 +155,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(H3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(J3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(L3+0)]</t>
+    <t>$[SUMPRODUCT(H3:H3:H3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(J3:J3:J3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(L3:L3:L3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +622,7 @@
   <dimension ref="A1:EG101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
